--- a/8/4/2/Empresas no financieras 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/2/Empresas no financieras 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
   <si>
     <t>Serie</t>
   </si>
@@ -251,6 +251,9 @@
   </si>
   <si>
     <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>01-04-2021</t>
   </si>
 </sst>
 </file>
@@ -608,7 +611,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2298,7 +2301,7 @@
         <v>78</v>
       </c>
       <c r="B74">
-        <v>33757</v>
+        <v>33754</v>
       </c>
       <c r="C74">
         <v>280</v>
@@ -2307,13 +2310,36 @@
         <v>280</v>
       </c>
       <c r="E74">
-        <v>33476</v>
+        <v>33474</v>
       </c>
       <c r="F74">
         <v>32424</v>
       </c>
       <c r="G74">
-        <v>1052</v>
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75">
+        <v>37860</v>
+      </c>
+      <c r="C75">
+        <v>142</v>
+      </c>
+      <c r="D75">
+        <v>142</v>
+      </c>
+      <c r="E75">
+        <v>37718</v>
+      </c>
+      <c r="F75">
+        <v>36692</v>
+      </c>
+      <c r="G75">
+        <v>1026</v>
       </c>
     </row>
   </sheetData>

--- a/8/4/2/Empresas no financieras 2003 a 2021 - Trimestral.xlsx
+++ b/8/4/2/Empresas no financieras 2003 a 2021 - Trimestral.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Serie</t>
   </si>
@@ -254,6 +254,9 @@
   </si>
   <si>
     <t>01-04-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -611,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G75"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2342,6 +2345,29 @@
         <v>1026</v>
       </c>
     </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+      <c r="B76">
+        <v>44254</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>44254</v>
+      </c>
+      <c r="F76">
+        <v>43243</v>
+      </c>
+      <c r="G76">
+        <v>1011</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
